--- a/biology/Médecine/Acidocétose_diabétique/Acidocétose_diabétique.xlsx
+++ b/biology/Médecine/Acidocétose_diabétique/Acidocétose_diabétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acidoc%C3%A9tose_diab%C3%A9tique</t>
+          <t>Acidocétose_diabétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'insuline est une hormone antilipolytique donc lorsqu'elle est en quantité insuffisante ou ne fonctionne pas dans un diabète , la lipolyse des acides gras n'est plus inhibée . Et la lipolyse se fait par une Beta-oxydation qui aboutit à la formation de beaucoup d'acétylCoA qui se transforment en corps cétoniques (acétoacétate, hydroxybutyrate) . C est la principale cause de l'acidocétose diabétique , les corps cétoniques faisant partie du métabolisme lipidique et non glucidique .
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acidoc%C3%A9tose_diab%C3%A9tique</t>
+          <t>Acidocétose_diabétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Formation de l'acétoacétate</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux acétyl-CoA forment un acétoacétate par une réaction inverse de celle de la thiolase.
 Un troisième actéyl-CoA est utilisé pour former du 3-hydroxy-3méthylglutaryl-CoA par le biais d'une condensation aldolique (HMG-CoA), qui peut être clivé en acétoacétate et acétyl-CoA HMG-CoA : précurseur de cholestérol (cytoplasme).
